--- a/results1.xlsx
+++ b/results1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
@@ -32360,10 +32360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34785,6 +34785,38 @@
         <v>1022</v>
       </c>
     </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1229</v>
+      </c>
+      <c r="C63">
+        <v>658</v>
+      </c>
+      <c r="D63">
+        <v>1175</v>
+      </c>
+      <c r="E63">
+        <v>445</v>
+      </c>
+      <c r="F63">
+        <v>80</v>
+      </c>
+      <c r="G63">
+        <v>489</v>
+      </c>
+      <c r="H63">
+        <v>460</v>
+      </c>
+      <c r="I63">
+        <v>418</v>
+      </c>
+      <c r="J63">
+        <v>24</v>
+      </c>
+      <c r="K63">
+        <v>1022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -34793,10 +34825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37178,7 +37210,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" ref="B62:K62" si="2">SUM(B2:B61)</f>
+        <f t="shared" ref="B62:K63" si="2">SUM(B2:B61)</f>
         <v>1408</v>
       </c>
       <c r="C62">
@@ -37215,6 +37247,38 @@
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1408</v>
+      </c>
+      <c r="C63">
+        <v>532</v>
+      </c>
+      <c r="D63">
+        <v>1734</v>
+      </c>
+      <c r="E63">
+        <v>309</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>260</v>
+      </c>
+      <c r="H63">
+        <v>288</v>
+      </c>
+      <c r="I63">
+        <v>286</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>1179</v>
       </c>
     </row>
@@ -37226,10 +37290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39651,6 +39715,38 @@
         <v>796</v>
       </c>
     </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>485</v>
+      </c>
+      <c r="C63">
+        <v>533</v>
+      </c>
+      <c r="D63">
+        <v>763</v>
+      </c>
+      <c r="E63">
+        <v>538</v>
+      </c>
+      <c r="F63">
+        <v>710</v>
+      </c>
+      <c r="G63">
+        <v>444</v>
+      </c>
+      <c r="H63">
+        <v>442</v>
+      </c>
+      <c r="I63">
+        <v>461</v>
+      </c>
+      <c r="J63">
+        <v>828</v>
+      </c>
+      <c r="K63">
+        <v>796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -39660,10 +39756,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42045,7 +42141,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" ref="B62:K62" si="2">SUM(B2:B61)</f>
+        <f t="shared" ref="B62:K63" si="2">SUM(B2:B61)</f>
         <v>1192</v>
       </c>
       <c r="C62">
@@ -42082,6 +42178,38 @@
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1192</v>
+      </c>
+      <c r="C63">
+        <v>559</v>
+      </c>
+      <c r="D63">
+        <v>601</v>
+      </c>
+      <c r="E63">
+        <v>365</v>
+      </c>
+      <c r="F63">
+        <v>85</v>
+      </c>
+      <c r="G63">
+        <v>391</v>
+      </c>
+      <c r="H63">
+        <v>481</v>
+      </c>
+      <c r="I63">
+        <v>14</v>
+      </c>
+      <c r="J63">
+        <v>1507</v>
+      </c>
+      <c r="K63">
         <v>805</v>
       </c>
     </row>
